--- a/Test/MultiPSO/No_exploitation/ALLCONError_175.xlsx
+++ b/Test/MultiPSO/No_exploitation/ALLCONError_175.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.007163041086521829</v>
+        <v>0.006224744027513092</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0006946788167201816</v>
+        <v>0.00136870665671629</v>
       </c>
       <c r="C1" t="n">
-        <v>0.001266925643075033</v>
+        <v>0.001200696696619828</v>
       </c>
       <c r="D1" t="n">
-        <v>0.001907191342171705</v>
+        <v>0.001212505801243643</v>
       </c>
       <c r="E1" t="n">
-        <v>0.002689635082259177</v>
+        <v>0.002716925880983078</v>
       </c>
       <c r="F1" t="n">
-        <v>0.00500453503742321</v>
+        <v>0.002380180333663856</v>
       </c>
       <c r="G1" t="n">
-        <v>0.005834098456823896</v>
+        <v>0.001849190698827508</v>
       </c>
       <c r="H1" t="n">
-        <v>0.00227312049724503</v>
+        <v>0.00129335512470467</v>
       </c>
       <c r="I1" t="n">
-        <v>0.006173836035009696</v>
+        <v>0.006632134921697103</v>
       </c>
       <c r="J1" t="n">
-        <v>0.003229357924788272</v>
+        <v>0.007266481433146671</v>
       </c>
     </row>
   </sheetData>
